--- a/biology/Botanique/Achille_Guillard/Achille_Guillard.xlsx
+++ b/biology/Botanique/Achille_Guillard/Achille_Guillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Guillard (né le 28 septembre 1799 à Marcigny ; mort le 20 février 1876 dans le 18e arrondissement de Paris) est un botaniste français qui participe à l'émergence des statistiques géographiques en France. Il introduit le terme de « démographie. »
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses humanités au lycée impérial de Clermont-Ferrand, puis enseigne au collège de Saint-Chamond. D'abord intéressé par la théologie, il étudie la botanique à Genève auprès de Seringe, et soutient sa thèse de docteur ès sciences en 1835. Il achève des travaux sur la croissance des plantes : il y montre que l'ordre de croissance des rameaux est caractéristique de chaque espèce, et obéit à des lois déterminées[1]. Guillard est par ailleurs lié à la célèbre famille Bertillon par sa fille, Zoé, qui épouse Louis-Adolphe Bertillon. Une autre de ses filles épouse l'économiste et historien Gustave Hubbard. Zoé et Louis-Adolphe Bertillon auront trois enfants dont Alphonse et Jacques qui connaîtront une réelle notoriété, tout particulièrement Alphonse qui est à l'origine de l'anthropométrie judiciaire. « Guillard était, dit Larousse[2], un républicain sincère, un ami fidèle et convaincu de la démocratie (...) principal fondateur de l’école laïque du IXe arrondissement de Paris. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses humanités au lycée impérial de Clermont-Ferrand, puis enseigne au collège de Saint-Chamond. D'abord intéressé par la théologie, il étudie la botanique à Genève auprès de Seringe, et soutient sa thèse de docteur ès sciences en 1835. Il achève des travaux sur la croissance des plantes : il y montre que l'ordre de croissance des rameaux est caractéristique de chaque espèce, et obéit à des lois déterminées. Guillard est par ailleurs lié à la célèbre famille Bertillon par sa fille, Zoé, qui épouse Louis-Adolphe Bertillon. Une autre de ses filles épouse l'économiste et historien Gustave Hubbard. Zoé et Louis-Adolphe Bertillon auront trois enfants dont Alphonse et Jacques qui connaîtront une réelle notoriété, tout particulièrement Alphonse qui est à l'origine de l'anthropométrie judiciaire. « Guillard était, dit Larousse, un républicain sincère, un ami fidèle et convaincu de la démocratie (...) principal fondateur de l’école laïque du IXe arrondissement de Paris. »
 </t>
         </is>
       </c>
